--- a/biology/Botanique/Salix_lucida/Salix_lucida.xlsx
+++ b/biology/Botanique/Salix_lucida/Salix_lucida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix lucida est une espèce d'arbre du genre Salix présent dans les zones humides du nord de l'Amérique du Nord.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au nord, l'arbre est présent partout au Canada de l'océan Atlantique à l'océan Pacifique mais aussi en Alaska. Aux États-Unis, il est seulement absent au sud d'une ligne allant du sud de la Virginie jusqu'au Texas mais est présent sur toute la côte du Pacifique. Il est ainsi absent de Floride et de Louisiane[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au nord, l'arbre est présent partout au Canada de l'océan Atlantique à l'océan Pacifique mais aussi en Alaska. Aux États-Unis, il est seulement absent au sud d'une ligne allant du sud de la Virginie jusqu'au Texas mais est présent sur toute la côte du Pacifique. Il est ainsi absent de Floride et de Louisiane.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix lucida prend la forme d'un petit arbre ou d'un arbuste avec une taille variant de 4 à 11 mètres. Caduques, ses feuilles sont lancéolées à elliptiques, de 4 à 17 cm de long pour 1 à 3,5 cm de large, de couleur vert foncé, peu ou pas pubescentes. Les chatons, qui apparaissent au printemps après l'apparition des premières feuilles, sont jaunes et long de 1 à 9 cm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix lucida prend la forme d'un petit arbre ou d'un arbuste avec une taille variant de 4 à 11 mètres. Caduques, ses feuilles sont lancéolées à elliptiques, de 4 à 17 cm de long pour 1 à 3,5 cm de large, de couleur vert foncé, peu ou pas pubescentes. Les chatons, qui apparaissent au printemps après l'apparition des premières feuilles, sont jaunes et long de 1 à 9 cm.
 </t>
         </is>
       </c>
@@ -573,13 +589,15 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe trois sous-espèces[2]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe trois sous-espèces:
 Salix lucida lucida, parfois dénommé Saule brillant. Tout le nord-est de l'Amérique du Nord.
 Salix lucida lasiandra, parfois dénommé Salix lasiandra, Salix lasiandra abramsii ou Saule du Pacifique. À l'ouest de l'Alaska jusque la Californie. À l'est des Territoires du Nord-Ouest jusqu'au Nouveau-Mexique.
 Salix lucida caudata (Nutt.) E.Murray. Idem Salix lasiandra mais Nouveau-Mexique et Arizona en moins alors que Wyoming en plus.
-L'arbre est très proche de Salix pentandra présent en Europe et en Asie[4].
+L'arbre est très proche de Salix pentandra présent en Europe et en Asie.
 </t>
         </is>
       </c>
